--- a/GPO Roster Avendra/Data/Config.xlsx
+++ b/GPO Roster Avendra/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Hilton\GPO Roster Hilton\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70AB830-A8F2-4409-B9A9-1D55189E663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9197A-73C7-423F-9279-776B8B9AD9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -162,15 +159,6 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>HSM_URL</t>
-  </si>
-  <si>
-    <t>https://hsm.my.site.com/hsmonboarding/s/login/</t>
-  </si>
-  <si>
-    <t>HSM_Credential</t>
-  </si>
-  <si>
     <t>DestinationPath</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>PriceGroupFilePath</t>
   </si>
   <si>
-    <t>DestinationPath_GPOHilton</t>
-  </si>
-  <si>
     <t>PriceGroupFilePath_GPOHilton</t>
   </si>
   <si>
@@ -264,26 +249,56 @@
     <t>CcEmail</t>
   </si>
   <si>
-    <t>SuccessEmail_GPOHilton</t>
-  </si>
-  <si>
-    <t>ExceptionEmail_GPOHilton</t>
-  </si>
-  <si>
-    <t>CcEmail_GPOHilton</t>
-  </si>
-  <si>
     <t>UipathUser</t>
   </si>
   <si>
     <t>C:\Users\AnkushMyadam\Documents\MASTER DATA TEAM\GPO Portal\Hilton</t>
+  </si>
+  <si>
+    <t>CountriesToFilter</t>
+  </si>
+  <si>
+    <t>CountriesToFilter_Avendra</t>
+  </si>
+  <si>
+    <t>DestinationPath_GPOAvendra</t>
+  </si>
+  <si>
+    <t>SuccessEmail_GPOAvendra</t>
+  </si>
+  <si>
+    <t>ExceptionEmail_GPOAvendra</t>
+  </si>
+  <si>
+    <t>CcEmail_GPOAvendra</t>
+  </si>
+  <si>
+    <t>Avendra_Credential</t>
+  </si>
+  <si>
+    <t>Avendra_Credentials</t>
+  </si>
+  <si>
+    <t>Avendra_URL</t>
+  </si>
+  <si>
+    <t>https://suppliers.aramark-avendragroup.com/</t>
+  </si>
+  <si>
+    <t>GPO Avendra</t>
+  </si>
+  <si>
+    <t>https://clp.aramark-avendragroup.com/customers</t>
+  </si>
+  <si>
+    <t>Avendra_URL_Customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -306,6 +321,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,10 +352,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,8 +368,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -364,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +687,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -710,22 +734,22 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -734,10 +758,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1742,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1798,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1833,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1855,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1866,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1877,180 +1901,187 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+        <v>84</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
+        <v>88</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>53</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2999,8 +3030,13 @@
     <row r="983" ht="14.25" customHeight="1"/>
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{AE86A3E3-E403-44D1-AB29-1C815DC0B4FD}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{A06E94C5-D90B-4A63-A0F2-26F603E9B6E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3009,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3030,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3060,42 +3096,42 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -3103,7 +3139,7 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -3111,7 +3147,7 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
@@ -3119,13 +3155,20 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
